--- a/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM_File.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM_File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM2\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
     <t>LoginPageTestData</t>
   </si>
   <si>
-    <t>C:\\AutomationTesting\\OrangeHRM2\\src\\test\\resources\\TestData\\OrangeHRM.xlsx</t>
+    <t>C:\\AutomationTesting\\OrangeHRM_Project\\src\\test\\resources\\TestData\\OrangeHRM.xlsx</t>
   </si>
   <si>
     <t>LoginPage</t>
@@ -40,13 +40,25 @@
     <t>LoginPageKeywords</t>
   </si>
   <si>
-    <t>C:\\AutomationTesting\\OrangeHRM2\\src\\test\\resources\\TestData\\Keywords.xlsx</t>
+    <t>C:\\AutomationTesting\\OrangeHRM_Project\\src\\test\\resources\\TestData\\Keywords.xlsx</t>
   </si>
   <si>
     <t>LoginPageLocators</t>
   </si>
   <si>
-    <t>C:\\AutomationTesting\\OrangeHRM2\\src\\test\\resources\\TestData\\Locator_Data.xlsx</t>
+    <t>C:\\AutomationTesting\\OrangeHRM_Project\\src\\test\\resources\\TestData\\Locator_Data.xlsx</t>
+  </si>
+  <si>
+    <t>AddEmployeePageTestData</t>
+  </si>
+  <si>
+    <t>AddEmployeePage</t>
+  </si>
+  <si>
+    <t>AddEmployeePageKeywords</t>
+  </si>
+  <si>
+    <t>AddEmployeePageLocators</t>
   </si>
 </sst>
 </file>
@@ -390,14 +402,14 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.88672" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.55469" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.66406" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.10938" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.886719" style="3"/>
   </cols>
   <sheetData>
@@ -445,9 +457,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1"/>
-    <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="2" customFormat="1"/>
+    <row r="5" s="2" customFormat="1" ht="28.8">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="28.8">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8" s="2" customFormat="1"/>
     <row r="9" s="2" customFormat="1"/>
     <row r="10" s="2" customFormat="1"/>

--- a/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM_File.xlsx
+++ b/OrangeHRM_Project/src/test/resources/TestData/OrangeHRM_File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\OrangeHRM_Project\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>AddEmployeePageLocators</t>
+  </si>
+  <si>
+    <t>EmployeeListPageTestData</t>
+  </si>
+  <si>
+    <t>EmployeeListPage</t>
+  </si>
+  <si>
+    <t>EmployeeListPageKeywords</t>
+  </si>
+  <si>
+    <t>EmployeeListPageLocators</t>
+  </si>
+  <si>
+    <t>DashboardPageLocators</t>
+  </si>
+  <si>
+    <t>DashboardPage</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -490,10 +508,50 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
+    <row r="8" s="2" customFormat="1" ht="28.8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="28.8">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="28.8">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="28.8">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="12" s="2" customFormat="1"/>
     <row r="13" s="2" customFormat="1"/>
     <row r="14" s="2" customFormat="1"/>
